--- a/data_excel/588.xlsx
+++ b/data_excel/588.xlsx
@@ -129,13 +129,14 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +510,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,16 +723,16 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
